--- a/Financials/Quarterly/NXST_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NXST_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A62EB-859C-4F6D-B39A-3C5FE0BDE934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NXST" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>NXST</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,153 +689,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>798000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>693000</v>
+      </c>
+      <c r="F8" s="3">
         <v>660300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>615300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>653700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>611900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>626100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>540300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>309900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>285400</v>
+      </c>
+      <c r="F9" s="3">
         <v>274400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>279000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>264400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>257700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>252600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>218700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>95100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>518800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>407600</v>
+      </c>
+      <c r="F10" s="3">
         <v>385900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>336300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>389300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>354200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>373500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>321600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>214800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +872,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +903,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +938,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>20500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>31800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>15300</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>79900</v>
+      </c>
+      <c r="F15" s="3">
         <v>78200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>78200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>92300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>87800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>90500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>94900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>30200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +1024,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>532700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>503300</v>
+      </c>
+      <c r="F17" s="3">
         <v>486300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>498700</v>
       </c>
-      <c r="F17" s="3">
-        <v>513400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>484000</v>
-      </c>
       <c r="H17" s="3">
+        <v>517500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>487200</v>
+      </c>
+      <c r="J17" s="3">
         <v>491900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>464600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>217400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>265300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>189700</v>
+      </c>
+      <c r="F18" s="3">
         <v>174000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>116600</v>
       </c>
-      <c r="F18" s="3">
-        <v>140300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>127900</v>
-      </c>
       <c r="H18" s="3">
+        <v>136200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>124700</v>
+      </c>
+      <c r="J18" s="3">
         <v>134200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>75700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>92500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>72900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1109,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-54100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-51700</v>
       </c>
-      <c r="F20" s="3">
-        <v>-52800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-53800</v>
-      </c>
       <c r="H20" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-53400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-76700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-45400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>297400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>214900</v>
+      </c>
+      <c r="F21" s="3">
         <v>198100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>143100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>168300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>151200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>161400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>83600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>77300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1210,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>135100</v>
+      </c>
+      <c r="F23" s="3">
         <v>119900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>64800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>87500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>74100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>80800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>47100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F24" s="3">
         <v>33300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>17500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>29900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>32300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>26700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1315,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>99800</v>
+      </c>
+      <c r="F26" s="3">
         <v>86600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>47300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>57700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>42100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>48500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>20400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100500</v>
+      </c>
+      <c r="F27" s="3">
         <v>87700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>48100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>56300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>46500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>44000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>20500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,25 +1420,31 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>322200</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>322200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1299,8 +1455,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1490,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1525,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F32" s="3">
         <v>54100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>51700</v>
       </c>
-      <c r="F32" s="3">
-        <v>52800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>53800</v>
-      </c>
       <c r="H32" s="3">
+        <v>48600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>50600</v>
+      </c>
+      <c r="J32" s="3">
         <v>53400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>76700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>45400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100500</v>
+      </c>
+      <c r="F33" s="3">
         <v>87700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>48100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>378500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>46500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>44000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>20500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1630,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100500</v>
+      </c>
+      <c r="F35" s="3">
         <v>87700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>48100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>378500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>46500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>44000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>20500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1724,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1739,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F41" s="3">
         <v>147700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>109100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>115700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>135800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>85900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>72900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>87700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1805,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>547300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>551700</v>
+      </c>
+      <c r="F43" s="3">
         <v>524100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>542700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>562900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>518500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>503100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>533900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>218100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1875,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>96300</v>
+      </c>
+      <c r="F45" s="3">
         <v>45300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>349800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>377600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>375100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>489500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>475400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>57500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>767100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>766500</v>
+      </c>
+      <c r="F46" s="3">
         <v>717100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1001600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1056200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1029400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1078500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1082200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>363200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1980,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>731500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>723900</v>
+      </c>
+      <c r="F48" s="3">
         <v>720500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>725300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>734100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>738200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>738700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>741500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>276200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>283600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5438100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5487100</v>
+      </c>
+      <c r="F49" s="3">
         <v>5509900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5544300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5492100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5534500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5583200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5611100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1340600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1367400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2085,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2120,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>141700</v>
+      </c>
+      <c r="F52" s="3">
         <v>172000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>186500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>199200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>202400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>69100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>88400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>986200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>982700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2190,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7062000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7119100</v>
+      </c>
+      <c r="F54" s="3">
         <v>7119500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7457600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7481600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7504600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7469600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7523100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2966100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2920700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2244,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2259,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F57" s="3">
         <v>66100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>80800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>31100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>61100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>27900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>36000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>19800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F58" s="3">
         <v>46700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>99000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>109500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>121800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>74300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>48000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>44600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>251000</v>
+      </c>
+      <c r="F59" s="3">
         <v>181700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>505300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>530100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>581800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>692300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>467200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>125200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>404200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>367300</v>
+      </c>
+      <c r="F60" s="3">
         <v>294600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>685200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>670700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>764700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>794400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>551200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>189600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3884900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4105900</v>
+      </c>
+      <c r="F61" s="3">
         <v>4245900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4243200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4269700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4286600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4377700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4481100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2314300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2320100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>904000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>893900</v>
+      </c>
+      <c r="F62" s="3">
         <v>936500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>947800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>960000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1254800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1094000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1270000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>177800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2500,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2535,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2570,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5209300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5391000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5486100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5886300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5911000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6315600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6279300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6311100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2796900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2768200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2624,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2655,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2690,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2725,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2760,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>620400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>484400</v>
+      </c>
+      <c r="F72" s="3">
         <v>400900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>330400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>299500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-79000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-125400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-169400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-176600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-197100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2830,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2865,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2900,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1852800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1728100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1633400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1571400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1570600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1189000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1190300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1212000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>169100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>152500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2970,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100500</v>
+      </c>
+      <c r="F81" s="3">
         <v>87700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>48100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>378500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>46500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>44000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>20500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3064,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>64800</v>
+      </c>
+      <c r="F83" s="3">
         <v>62300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>62100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>65000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>60000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>64800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>70400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>24800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3130,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3165,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3200,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3235,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3270,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>237200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>175500</v>
+      </c>
+      <c r="F89" s="3">
         <v>144800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>179400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>45900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-47100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>158900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>85100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3324,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18400</v>
+        <v>-42700</v>
       </c>
       <c r="E91" s="3">
-        <v>-103900</v>
+        <v>-27200</v>
       </c>
       <c r="F91" s="3">
-        <v>-27700</v>
+        <v>-15300</v>
       </c>
       <c r="G91" s="3">
-        <v>2977700</v>
+        <v>-21100</v>
       </c>
       <c r="H91" s="3">
-        <v>-27600</v>
+        <v>-23600</v>
       </c>
       <c r="I91" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5970200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-12500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3390,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3425,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-101000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-24100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>459300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2497700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3479,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-17200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-17300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-13800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-13900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-14200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-14100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-7400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3545,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3580,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3615,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-196700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-89200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-84900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-42000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-362300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-146300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2503900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-15200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-54400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3685,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="F102" s="3">
         <v>38600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-20100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>49900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-14800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>58400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
     </row>

--- a/Financials/Quarterly/NXST_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NXST_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A62EB-859C-4F6D-B39A-3C5FE0BDE934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NXST" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>NXST</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,178 +654,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>663600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>649000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>626600</v>
+      </c>
+      <c r="G8" s="3">
         <v>798000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>693000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>660300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>615300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>653700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>611900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>626100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>540300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>309900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>319200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>292900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>289800</v>
+      </c>
+      <c r="G9" s="3">
         <v>279200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>285400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>274400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>279000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>264400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>257700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>252600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>218700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>95100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>344400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>356100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>336800</v>
+      </c>
+      <c r="G10" s="3">
         <v>518800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>407600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>385900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>336300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>389300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>354200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>373500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>321600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>214800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>177500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +878,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +916,17 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -944,78 +960,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G14" s="3">
         <v>27400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>3200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>20500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>31800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>15300</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>78500</v>
+      </c>
+      <c r="G15" s="3">
         <v>84300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>79900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>78200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>78200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>92300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>87800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>90500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>94900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>30200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1026,78 +1069,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>501100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>501300</v>
+      </c>
+      <c r="G17" s="3">
         <v>532700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>503300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>486300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>498700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>517500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>487200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>491900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>464600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>217400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>202800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>147900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>125300</v>
+      </c>
+      <c r="G18" s="3">
         <v>265300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>189700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>174000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>116600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>136200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>124700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>134200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>75700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>92500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>72900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,78 +1175,99 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-52100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-54600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-54100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-51700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-48600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-50600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-53400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-76700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-45400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>175800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>151900</v>
+      </c>
+      <c r="G21" s="3">
         <v>297400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>214900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>198100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>143100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>168300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>151200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>161400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>83600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>77300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1216,78 +1301,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>97400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>73300</v>
+      </c>
+      <c r="G23" s="3">
         <v>213200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>135100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>119900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>64800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>87500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>74100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>80800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>47100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="G24" s="3">
         <v>58700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>35200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>33300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>17500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>29900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>32300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>-5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>26700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1321,78 +1433,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>70700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>56900</v>
+      </c>
+      <c r="G26" s="3">
         <v>154500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>99800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>86600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>47300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>57700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>42100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>48500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>20400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>54900</v>
+      </c>
+      <c r="G27" s="3">
         <v>153100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>100500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>87700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>48100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>56300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>46500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>44000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>20500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1426,13 +1565,22 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1440,11 +1588,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H29" s="3">
-        <v>322200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,8 +1600,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>322200</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1461,8 +1609,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1496,8 +1653,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1531,78 +1697,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="3">
         <v>52100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>54600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>54100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>51700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>48600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>50600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>53400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>76700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>45400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>54900</v>
+      </c>
+      <c r="G33" s="3">
         <v>153100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>100500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>87700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>48100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>378500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>46500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>44000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>20500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1636,83 +1829,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>54900</v>
+      </c>
+      <c r="G35" s="3">
         <v>153100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>100500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>87700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>48100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>378500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>46500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>44000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>20500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1726,8 +1946,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1741,43 +1964,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>317400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>79900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>128600</v>
+      </c>
+      <c r="G41" s="3">
         <v>145100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>118400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>147700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>109100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>115700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>135800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>85900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>72900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>87700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1811,43 +2046,61 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>860800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>542600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>540500</v>
+      </c>
+      <c r="G43" s="3">
         <v>547300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>551700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>524100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>542700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>562900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>518500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>503100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>533900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>218100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1881,101 +2134,128 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>257400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>74400</v>
+      </c>
+      <c r="G45" s="3">
         <v>74700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>96300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>45300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>349800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>377600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>375100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>489500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>475400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>57500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1435600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>775900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>743500</v>
+      </c>
+      <c r="G46" s="3">
         <v>767100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>766500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>717100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1001600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1056200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1029400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1078500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>1082200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>363200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1499100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1986,78 +2266,105 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1494600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>853400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>848600</v>
+      </c>
+      <c r="G48" s="3">
         <v>731500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>723900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>720500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>725300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>734100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>738200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>738700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>741500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>276200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>283600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9259800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5341500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5378300</v>
+      </c>
+      <c r="G49" s="3">
         <v>5438100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>5487100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>5509900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>5544300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>5492100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>5534500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>5583200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>5611100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>1340600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>1367400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,8 +2398,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2126,43 +2442,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>414200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>126800</v>
+      </c>
+      <c r="G52" s="3">
         <v>125300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>141700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>172000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>186500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>199200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>202400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>69100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>88400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>986200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>982700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2196,43 +2530,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14103400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7031500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>7097200</v>
+      </c>
+      <c r="G54" s="3">
         <v>7062000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>7119100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>7119500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>7457600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>7481600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>7504600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>7469600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>7523100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>2966100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>2920700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2246,8 +2598,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2261,218 +2616,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>70400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>72300</v>
+      </c>
+      <c r="G57" s="3">
         <v>67800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>74200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>66100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>80800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>31100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>61100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>27900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>36000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>19800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>95800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>96400</v>
+      </c>
+      <c r="G58" s="3">
         <v>96100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>42100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>46700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>99000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>109500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>121800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>74300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>48000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>44600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>841600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>327900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>261300</v>
+      </c>
+      <c r="G59" s="3">
         <v>240300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>251000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>181700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>505300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>530100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>581800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>692300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>467200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>125200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1094300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>494000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>429900</v>
+      </c>
+      <c r="G60" s="3">
         <v>404200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>367300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>294600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>685200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>670700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>764700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>794400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>551200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>189600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8408600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3705400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3813100</v>
+      </c>
+      <c r="G61" s="3">
         <v>3884900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>4105900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>4245900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>4243200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>4269700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>4286600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>4377700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>4481100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>2314300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>2320100</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2650400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>873800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>955200</v>
+      </c>
+      <c r="G62" s="3">
         <v>904000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>893900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>936500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>947800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>960000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>1254800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>1094000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>1270000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>177800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2506,8 +2918,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2541,8 +2962,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2576,43 +3006,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12174700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5087800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5209900</v>
+      </c>
+      <c r="G66" s="3">
         <v>5209300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>5391000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>5486100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>5886300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>5911000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>6315600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>6279300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>6311100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2796900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2768200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2626,8 +3074,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2661,8 +3112,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2696,8 +3156,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2731,8 +3200,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2766,43 +3244,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>675400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>701900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>654700</v>
+      </c>
+      <c r="G72" s="3">
         <v>620400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>484400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>400900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>330400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>299500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-79000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-125400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-169400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-176600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-197100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2836,8 +3332,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2871,8 +3376,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2906,43 +3420,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1928700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1943800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1887300</v>
+      </c>
+      <c r="G76" s="3">
         <v>1852800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>1728100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>1633400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>1571400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>1570600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>1189000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>1190300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>1212000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>169100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>152500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2976,83 +3508,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>54900</v>
+      </c>
+      <c r="G81" s="3">
         <v>153100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>100500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>87700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>48100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>378500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>46500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>44000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>20500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3066,43 +3625,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>64400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>64200</v>
+      </c>
+      <c r="G83" s="3">
         <v>70000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>64800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>62300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>62100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>65000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>60000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>64800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>70400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>24800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3136,8 +3707,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3171,8 +3751,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3206,8 +3795,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3241,8 +3839,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3276,43 +3883,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>111800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>124600</v>
+      </c>
+      <c r="G89" s="3">
         <v>237200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>175500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>144800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>179400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>45900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-47100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>158900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-21000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>85100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3326,43 +3951,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-42700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-27200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-15300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-21100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-23600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-13800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-5970200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-12500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-21200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3396,8 +4033,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3431,43 +4077,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4545300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-17000</v>
-      </c>
       <c r="G94" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-101000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-24100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>459300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-2497700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-11200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3481,43 +4145,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-17100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="H96" s="3">
         <v>-17100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="I96" s="3">
         <v>-17200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="J96" s="3">
         <v>-17300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="K96" s="3">
         <v>-13800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-13900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-14200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-14100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-7400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3551,8 +4227,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3586,8 +4271,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3621,43 +4315,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4719800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-137400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-127400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-196700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-161000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-89200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-84900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-42000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-362300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-146300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>2503900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-15200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-54400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3691,39 +4403,57 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>254100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G102" s="3">
         <v>26700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-29300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>38600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-20100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>49900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-14800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>58400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>2100</v>
       </c>
     </row>
